--- a/input/data/data.xlsx
+++ b/input/data/data.xlsx
@@ -7227,11 +7227,11 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.72"/>
@@ -8323,7 +8323,7 @@
       <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.23"/>
@@ -8572,7 +8572,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8640,7 +8640,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.69"/>
@@ -8722,7 +8722,7 @@
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
@@ -8812,7 +8812,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
   </cols>
@@ -8908,7 +8908,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -15263,7 +15263,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18"/>

--- a/input/data/data.xlsx
+++ b/input/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="technology_data" sheetId="1" state="visible" r:id="rId2"/>
@@ -7224,11 +7224,11 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.72"/>
@@ -8201,7 +8201,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>45</v>
@@ -8232,7 +8232,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>45</v>
@@ -8316,11 +8316,11 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.23"/>
@@ -8405,7 +8405,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2025</v>
@@ -8569,7 +8569,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8637,7 +8637,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.69"/>
@@ -8719,7 +8719,7 @@
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
@@ -8809,7 +8809,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
   </cols>
@@ -8905,7 +8905,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -15260,7 +15260,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18"/>

--- a/input/data/data.xlsx
+++ b/input/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="technology_data" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,8 @@
     <sheet name="routes" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A$1:$K$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A:$K</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A:$L</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A$1:$L$37</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="93">
   <si>
     <t xml:space="preserve">process_group</t>
   </si>
@@ -44,18 +44,21 @@
     <t xml:space="preserve">subcomponent</t>
   </si>
   <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">unit</t>
   </si>
   <si>
     <t xml:space="preserve">val</t>
   </si>
   <si>
+    <t xml:space="preserve">val_uncertainty</t>
+  </si>
+  <si>
     <t xml:space="preserve">val_year</t>
   </si>
   <si>
-    <t xml:space="preserve">mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">source</t>
   </si>
   <si>
@@ -251,7 +254,13 @@
     <t xml:space="preserve">Electrolysis</t>
   </si>
   <si>
+    <t xml:space="preserve">MWh (LHV)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Direct reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">Electric-arc furnace</t>
@@ -539,17 +548,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C1:K37" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C1:L37" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="10">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="component"/>
     <tableColumn id="3" name="subcomponent"/>
-    <tableColumn id="4" name="unit"/>
-    <tableColumn id="5" name="val"/>
-    <tableColumn id="6" name="val_year"/>
-    <tableColumn id="7" name="mode"/>
-    <tableColumn id="8" name="source"/>
-    <tableColumn id="9" name="comment"/>
+    <tableColumn id="4" name="mode"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="6" name="val"/>
+    <tableColumn id="7" name="val_uncertainty"/>
+    <tableColumn id="8" name="val_year"/>
+    <tableColumn id="9" name="source"/>
+    <tableColumn id="10" name="comment"/>
   </tableColumns>
 </table>
 </file>
@@ -560,24 +570,26 @@
     <tabColor rgb="FFDEEBF7"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,10 +611,10 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -614,1472 +626,1516 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="10" t="n">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="n">
         <v>230</v>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="n">
         <v>2025</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="10" t="n">
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="n">
         <v>2050</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="10" t="n">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10" t="n">
         <v>184</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="7"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="10" t="n">
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="10" t="n">
         <v>800000</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="n">
         <v>2025</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10" t="n">
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10" t="n">
         <v>300000</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="n">
         <v>2050</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>15</v>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="10" t="n">
+      <c r="H12" s="10" t="n">
         <v>0.329</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="7"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="10" t="n">
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="10" t="n">
         <v>1.69983</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="7"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="10" t="n">
+      <c r="F14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="10" t="n">
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="10" t="n">
         <v>2.79</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="10" t="n">
+      <c r="H16" s="10" t="n">
         <v>0.753</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="10" t="n">
+      <c r="H17" s="10" t="n">
         <v>0.667</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="7"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="10" t="n">
+      <c r="H18" s="10" t="n">
         <v>0.159</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="7"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H19" s="12" t="n">
-        <v>2025</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="H20" s="10" t="n">
         <v>1.33</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="n">
         <v>2050</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>15</v>
+      <c r="K21" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>15</v>
+      <c r="K22" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="H23" s="2" t="n">
         <v>0.278</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>15</v>
+      <c r="K23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="H24" s="2" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="7"/>
+      <c r="G31" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="H31" s="10" t="n">
         <v>1.504</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="7"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="7"/>
+      <c r="G32" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="H32" s="10" t="n">
         <v>0.011</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="7"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="10" t="n">
+      <c r="H33" s="10" t="n">
         <v>0.85</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="7"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="10" t="n">
+      <c r="H34" s="10" t="n">
         <v>0.35</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="7"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="7"/>
+      <c r="G35" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="10" t="n">
+      <c r="H35" s="10" t="n">
         <v>0.002</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="7"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="7"/>
+      <c r="G36" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="10" t="n">
+      <c r="H36" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="7"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="8" t="n">
+      <c r="F37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="10" t="n">
+      <c r="H37" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="7"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="8" t="n">
+      <c r="F38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="10" t="n">
+      <c r="H38" s="10" t="n">
         <v>0.6</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="7"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="10" t="n">
+      <c r="F40" s="7"/>
+      <c r="G40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="10" t="n">
         <v>130</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="7"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="10" t="n">
+      <c r="F41" s="7"/>
+      <c r="G41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="10" t="n">
         <v>1777</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="7"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="10" t="n">
+      <c r="F42" s="7"/>
+      <c r="G42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="10" t="n">
         <v>4000</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="7"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="10" t="n">
+      <c r="F43" s="7"/>
+      <c r="G43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="7"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="10" t="n">
+      <c r="F44" s="7"/>
+      <c r="G44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="10" t="n">
         <v>180</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="7"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>15</v>
+      <c r="K45" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="G46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="H46" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>15</v>
+      <c r="K46" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="8" t="n">
+      <c r="F48" s="7"/>
+      <c r="G48" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="10" t="n">
+      <c r="H48" s="10" t="n">
         <v>0.03</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="7"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="10" t="n">
+      <c r="F49" s="7"/>
+      <c r="G49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" s="7"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="8" t="n">
+      <c r="F50" s="7"/>
+      <c r="G50" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="10" t="n">
+      <c r="H50" s="10" t="n">
         <v>0.03</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K50" s="7"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="8" t="n">
+      <c r="F51" s="7"/>
+      <c r="G51" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G51" s="10" t="n">
+      <c r="H51" s="10" t="n">
         <v>0.03</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="7"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="10" t="n">
+      <c r="F52" s="7"/>
+      <c r="G52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="L52" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="H53" s="11" t="n">
+      <c r="I53" s="11"/>
+      <c r="J53" s="11" t="n">
         <v>2025</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7" t="s">
+      <c r="K53" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="10" t="n">
+      <c r="F54" s="7"/>
+      <c r="G54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="H54" s="12" t="n">
+      <c r="I54" s="12"/>
+      <c r="J54" s="12" t="n">
         <v>2050</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="7"/>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="G55" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="L55" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="10" t="n">
+      <c r="F56" s="7"/>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="L56" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
@@ -5024,13 +5080,12 @@
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="6"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:K37"/>
+  <autoFilter ref="A:L"/>
   <dataValidations count="1">
     <dataValidation allowBlank="true" error="Check value!" errorTitle="Check value!" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:A1037" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5059,7 +5114,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.23"/>
@@ -5067,30 +5122,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>60</v>
@@ -5101,13 +5156,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>30</v>
@@ -5118,13 +5173,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40</v>
@@ -5135,13 +5190,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>100</v>
@@ -5152,13 +5207,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60</v>
@@ -5169,13 +5224,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>100</v>
@@ -5186,13 +5241,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>50</v>
@@ -5203,13 +5258,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>15</v>
@@ -5220,13 +5275,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>30</v>
@@ -5237,13 +5292,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>60</v>
@@ -5254,13 +5309,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>40</v>
@@ -5271,13 +5326,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>300</v>
@@ -5302,78 +5357,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.21"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5394,11 +5470,11 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.69"/>
@@ -5409,69 +5485,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/data.xlsx
+++ b/input/data/data.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gast/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{437A6857-F6D1-0242-A05D-EC15D50BF5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27760" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="technology_data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="price_assumptions" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="processes" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="routes" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="technology_data" sheetId="1" r:id="rId1"/>
+    <sheet name="price_assumptions" sheetId="2" r:id="rId2"/>
+    <sheet name="processes" sheetId="3" r:id="rId3"/>
+    <sheet name="routes" sheetId="4" r:id="rId4"/>
+    <sheet name="dropdown" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A:$L</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A$1:$L$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">technology_data!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,296 +33,340 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="93">
-  <si>
-    <t xml:space="preserve">process_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subcomponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val_uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agora Stahlrechner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogl et al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own assumptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energy_demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWh/t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For CDRI w/o heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For using scrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heating of CDRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energy_prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedstock_demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alloies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pig iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graphite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedstock_prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed_opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anke?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acatech Daten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elec. Price (Importer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/MWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price electricity exporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elec. Price (Exporter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price natural gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural-gas price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2 price (Importer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price hydrogen exporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2 price (Exporter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price ghg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrolysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWh (LHV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric-arc furnace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blast furnace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic-oxygen furnace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import_cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL_H2DR_EAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELEC, DR-H2, EAF-primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: ore, 2: ore+hydrogen, 3: dri, 4: steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2DR_EAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR-H2, EAF-primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGDR_EAF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="108">
+  <si>
+    <t>process_group</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>subcomponent</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>val_uncertainty</t>
+  </si>
+  <si>
+    <t>val_year</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>capex</t>
+  </si>
+  <si>
+    <t>EUR/t</t>
+  </si>
+  <si>
+    <t>Agora Stahlrechner</t>
+  </si>
+  <si>
+    <t>BOF</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Vogl et al</t>
+  </si>
+  <si>
+    <t>Own assumptions</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
+    <t>ELEC</t>
+  </si>
+  <si>
+    <t>EUR/MW</t>
+  </si>
+  <si>
+    <t>IEA</t>
+  </si>
+  <si>
+    <t>energy_demand</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>MWh/t</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>For CDRI w/o heating</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>For using scrap</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>Heating of CDRI</t>
+  </si>
+  <si>
+    <t>energy_prices</t>
+  </si>
+  <si>
+    <t>feedstock_demand</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>alloies</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>pig iron</t>
+  </si>
+  <si>
+    <t>scrap</t>
+  </si>
+  <si>
+    <t>dri</t>
+  </si>
+  <si>
+    <t>graphite</t>
+  </si>
+  <si>
+    <t>feedstock_prices</t>
+  </si>
+  <si>
+    <t>fixed_opex</t>
+  </si>
+  <si>
+    <t>labour</t>
+  </si>
+  <si>
+    <t>onm</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Anke?</t>
+  </si>
+  <si>
+    <t>Acatech Daten</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>price electricity</t>
+  </si>
+  <si>
+    <t>Elec. Price (Importer)</t>
+  </si>
+  <si>
+    <t>EUR/MWh</t>
+  </si>
+  <si>
+    <t>price electricity exporter</t>
+  </si>
+  <si>
+    <t>Elec. Price (Exporter)</t>
+  </si>
+  <si>
+    <t>price natural gas</t>
+  </si>
+  <si>
+    <t>Natural-gas price</t>
+  </si>
+  <si>
+    <t>price hydrogen</t>
+  </si>
+  <si>
+    <t>H2 price (Importer)</t>
+  </si>
+  <si>
+    <t>price hydrogen exporter</t>
+  </si>
+  <si>
+    <t>H2 price (Exporter)</t>
+  </si>
+  <si>
+    <t>price ghg</t>
+  </si>
+  <si>
+    <t>Carbon price</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>Electrolysis</t>
+  </si>
+  <si>
+    <t>MWh (LHV)</t>
+  </si>
+  <si>
+    <t>Direct reduction</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Electric-arc furnace</t>
+  </si>
+  <si>
+    <t>Blast furnace</t>
+  </si>
+  <si>
+    <t>Basic-oxygen furnace</t>
+  </si>
+  <si>
+    <t>processes</t>
+  </si>
+  <si>
+    <t>import_cases</t>
+  </si>
+  <si>
+    <t>EL_H2DR_EAF</t>
+  </si>
+  <si>
+    <t>ELEC, DR-H2, EAF-primary</t>
+  </si>
+  <si>
+    <t>1: ore, 2: ore+hydrogen, 3: dri, 4: steel</t>
+  </si>
+  <si>
+    <t>H2DR_EAF</t>
+  </si>
+  <si>
+    <t>DR-H2, EAF-primary</t>
+  </si>
+  <si>
+    <t>NGDR_EAF</t>
   </si>
   <si>
     <t xml:space="preserve">ELEC, DR-NG, EAF-primary </t>
   </si>
   <si>
-    <t xml:space="preserve">1: ore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF_BOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF, BOF-primary</t>
+    <t>1: ore</t>
+  </si>
+  <si>
+    <t>BF_BOF</t>
+  </si>
+  <si>
+    <t>BF, BOF-primary</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>A-SMR</t>
+  </si>
+  <si>
+    <t>A-GH</t>
+  </si>
+  <si>
+    <t>Ammonia: Green Hydrogen</t>
+  </si>
+  <si>
+    <t>Ammonia: Steam-Methane-Reforming</t>
+  </si>
+  <si>
+    <t>ammonia</t>
+  </si>
+  <si>
+    <t>A_SMR</t>
+  </si>
+  <si>
+    <t>A_GH</t>
+  </si>
+  <si>
+    <t>VCI, IEA (2018), Boulamanti and Moya (2017)</t>
+  </si>
+  <si>
+    <t>emissions_output</t>
+  </si>
+  <si>
+    <t>t/t</t>
+  </si>
+  <si>
+    <t>without hydrogen</t>
+  </si>
+  <si>
+    <t>€/t</t>
+  </si>
+  <si>
+    <t>Boulamanti and Moya (2017)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,22 +375,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -357,7 +399,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -365,121 +407,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="21"/>
-    <cellStyle name="Normal 4" xfId="22"/>
-    <cellStyle name="Standard 2" xfId="23"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Standard 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -538,61 +522,350 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C1:L37" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="10">
-    <tableColumn id="1" name="type"/>
-    <tableColumn id="2" name="component"/>
-    <tableColumn id="3" name="subcomponent"/>
-    <tableColumn id="4" name="mode"/>
-    <tableColumn id="5" name="unit"/>
-    <tableColumn id="6" name="val"/>
-    <tableColumn id="7" name="val_uncertainty"/>
-    <tableColumn id="8" name="val_year"/>
-    <tableColumn id="9" name="source"/>
-    <tableColumn id="10" name="comment"/>
-  </tableColumns>
-</table>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFDEEBF7"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L1027"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="9.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.81"/>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -630,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -643,14 +916,14 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>106</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -663,14 +936,14 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -686,11 +959,11 @@
       <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="10">
         <v>230</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="11" t="n">
+      <c r="J4" s="11">
         <v>2025</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -698,7 +971,7 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -714,11 +987,11 @@
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>200</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="12">
         <v>2050</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -726,7 +999,7 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -742,7 +1015,7 @@
       <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>184</v>
       </c>
       <c r="I6" s="11"/>
@@ -752,7 +1025,7 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -768,11 +1041,11 @@
       <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>800000</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>2025</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -780,7 +1053,7 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -796,11 +1069,11 @@
       <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="10" t="n">
+      <c r="H8" s="10">
         <v>300000</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="12">
         <v>2050</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -808,7 +1081,7 @@
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -821,17 +1094,17 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>0.17</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -844,17 +1117,17 @@
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>0.4</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -870,14 +1143,14 @@
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>0.17</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -895,8 +1168,8 @@
       <c r="G12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="10" t="n">
-        <v>0.329</v>
+      <c r="H12" s="10">
+        <v>0.32900000000000001</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -905,7 +1178,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -925,7 +1198,7 @@
       <c r="G13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="10">
         <v>1.69983</v>
       </c>
       <c r="I13" s="11"/>
@@ -935,7 +1208,7 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -955,7 +1228,7 @@
       <c r="G14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H14" s="10">
         <v>0.5</v>
       </c>
       <c r="I14" s="11"/>
@@ -965,7 +1238,7 @@
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1258,7 @@
       <c r="G15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="10">
         <v>2.79</v>
       </c>
       <c r="I15" s="11"/>
@@ -995,7 +1268,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1290,7 @@
       <c r="G16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="10">
         <v>0.753</v>
       </c>
       <c r="I16" s="11"/>
@@ -1027,7 +1300,7 @@
       </c>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -1049,8 +1322,8 @@
       <c r="G17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10" t="n">
-        <v>0.667</v>
+      <c r="H17" s="10">
+        <v>0.66700000000000004</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1059,7 +1332,7 @@
       </c>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1352,7 @@
       <c r="G18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="10" t="n">
+      <c r="H18" s="10">
         <v>0.159</v>
       </c>
       <c r="I18" s="11"/>
@@ -1089,7 +1362,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -1104,14 +1377,14 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="10" t="n">
+      <c r="H19" s="10">
         <v>1.47</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="12" t="n">
+      <c r="J19" s="12">
         <v>2025</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -1119,7 +1392,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -1134,20 +1407,20 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="8">
         <v>1</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H20" s="10">
         <v>1.33</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="12" t="n">
+      <c r="J20" s="12">
         <v>2050</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -1163,14 +1436,14 @@
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>110</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1186,14 +1459,14 @@
       <c r="G22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>143</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
@@ -1206,17 +1479,17 @@
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.278</v>
+      <c r="H23" s="2">
+        <v>0.27800000000000002</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
@@ -1229,14 +1502,14 @@
       <c r="D24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
@@ -1251,11 +1524,11 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="8">
         <v>1</v>
       </c>
-      <c r="H25" s="10" t="n">
-        <v>0.011</v>
+      <c r="H25" s="10">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -1264,7 +1537,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -1277,17 +1550,17 @@
       <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>0.18</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
@@ -1304,10 +1577,10 @@
       <c r="F27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="8">
         <v>1</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H27" s="10">
         <v>0.85</v>
       </c>
       <c r="I27" s="11"/>
@@ -1317,7 +1590,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
@@ -1334,10 +1607,10 @@
       <c r="F28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="8">
         <v>1</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="10">
         <v>0.35</v>
       </c>
       <c r="I28" s="11"/>
@@ -1347,7 +1620,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>12</v>
       </c>
@@ -1364,10 +1637,10 @@
       <c r="F29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="8">
         <v>1</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H29" s="10">
         <v>0.1</v>
       </c>
       <c r="I29" s="11"/>
@@ -1377,7 +1650,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>12</v>
       </c>
@@ -1394,10 +1667,10 @@
       <c r="F30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G30" s="8">
         <v>1</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H30" s="10">
         <v>0.6</v>
       </c>
       <c r="I30" s="11"/>
@@ -1407,7 +1680,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
@@ -1422,10 +1695,10 @@
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="8">
         <v>1</v>
       </c>
-      <c r="H31" s="10" t="n">
+      <c r="H31" s="10">
         <v>1.504</v>
       </c>
       <c r="I31" s="11"/>
@@ -1435,7 +1708,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
@@ -1450,11 +1723,11 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="8" t="n">
+      <c r="G32" s="8">
         <v>1</v>
       </c>
-      <c r="H32" s="10" t="n">
-        <v>0.011</v>
+      <c r="H32" s="10">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -1463,7 +1736,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -1480,10 +1753,10 @@
       <c r="F33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33" s="8">
         <v>1</v>
       </c>
-      <c r="H33" s="10" t="n">
+      <c r="H33" s="10">
         <v>0.85</v>
       </c>
       <c r="I33" s="11"/>
@@ -1493,7 +1766,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -1510,10 +1783,10 @@
       <c r="F34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="8">
         <v>1</v>
       </c>
-      <c r="H34" s="10" t="n">
+      <c r="H34" s="10">
         <v>0.35</v>
       </c>
       <c r="I34" s="11"/>
@@ -1523,7 +1796,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -1538,11 +1811,11 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="8" t="n">
+      <c r="G35" s="8">
         <v>1</v>
       </c>
-      <c r="H35" s="10" t="n">
-        <v>0.002</v>
+      <c r="H35" s="10">
+        <v>2E-3</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -1551,7 +1824,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>12</v>
       </c>
@@ -1566,10 +1839,10 @@
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="8" t="n">
+      <c r="G36" s="8">
         <v>1</v>
       </c>
-      <c r="H36" s="10" t="n">
+      <c r="H36" s="10">
         <v>0.05</v>
       </c>
       <c r="I36" s="11"/>
@@ -1579,7 +1852,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>12</v>
       </c>
@@ -1596,10 +1869,10 @@
       <c r="F37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="8">
         <v>1</v>
       </c>
-      <c r="H37" s="10" t="n">
+      <c r="H37" s="10">
         <v>0.1</v>
       </c>
       <c r="I37" s="11"/>
@@ -1609,7 +1882,7 @@
       </c>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>12</v>
       </c>
@@ -1626,10 +1899,10 @@
       <c r="F38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="8" t="n">
+      <c r="G38" s="8">
         <v>1</v>
       </c>
-      <c r="H38" s="10" t="n">
+      <c r="H38" s="10">
         <v>0.6</v>
       </c>
       <c r="I38" s="11"/>
@@ -1639,7 +1912,7 @@
       </c>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>12</v>
       </c>
@@ -1655,14 +1928,14 @@
       <c r="G39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>60.8</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1953,7 @@
       <c r="G40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="10" t="n">
+      <c r="H40" s="10">
         <v>130</v>
       </c>
       <c r="I40" s="11"/>
@@ -1690,7 +1963,7 @@
       </c>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
@@ -1708,7 +1981,7 @@
       <c r="G41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="10" t="n">
+      <c r="H41" s="10">
         <v>1777</v>
       </c>
       <c r="I41" s="11"/>
@@ -1718,7 +1991,7 @@
       </c>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>12</v>
       </c>
@@ -1736,7 +2009,7 @@
       <c r="G42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="10" t="n">
+      <c r="H42" s="10">
         <v>4000</v>
       </c>
       <c r="I42" s="11"/>
@@ -1746,7 +2019,7 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>12</v>
       </c>
@@ -1764,7 +2037,7 @@
       <c r="G43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="10" t="n">
+      <c r="H43" s="10">
         <v>100</v>
       </c>
       <c r="I43" s="11"/>
@@ -1774,7 +2047,7 @@
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +2065,7 @@
       <c r="G44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="10" t="n">
+      <c r="H44" s="10">
         <v>180</v>
       </c>
       <c r="I44" s="11"/>
@@ -1802,7 +2075,7 @@
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -1818,14 +2091,14 @@
       <c r="G45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2">
         <v>38</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -1838,17 +2111,17 @@
       <c r="D46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2">
         <v>0.03</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>12</v>
       </c>
@@ -1861,17 +2134,17 @@
       <c r="D47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2">
         <v>0.03</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>12</v>
       </c>
@@ -1886,10 +2159,10 @@
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="8" t="n">
+      <c r="G48" s="8">
         <v>1</v>
       </c>
-      <c r="H48" s="10" t="n">
+      <c r="H48" s="10">
         <v>0.03</v>
       </c>
       <c r="I48" s="11"/>
@@ -1899,7 +2172,7 @@
       </c>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>12</v>
       </c>
@@ -1917,7 +2190,7 @@
       <c r="G49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="10" t="n">
+      <c r="H49" s="10">
         <v>35</v>
       </c>
       <c r="I49" s="11"/>
@@ -1927,7 +2200,7 @@
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
@@ -1942,10 +2215,10 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="8" t="n">
+      <c r="G50" s="8">
         <v>1</v>
       </c>
-      <c r="H50" s="10" t="n">
+      <c r="H50" s="10">
         <v>0.03</v>
       </c>
       <c r="I50" s="11"/>
@@ -1955,7 +2228,7 @@
       </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>12</v>
       </c>
@@ -1970,10 +2243,10 @@
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="8" t="n">
+      <c r="G51" s="8">
         <v>1</v>
       </c>
-      <c r="H51" s="10" t="n">
+      <c r="H51" s="10">
         <v>0.03</v>
       </c>
       <c r="I51" s="11"/>
@@ -1983,7 +2256,7 @@
       </c>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2274,7 @@
       <c r="G52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="10" t="n">
+      <c r="H52" s="10">
         <v>20</v>
       </c>
       <c r="I52" s="11"/>
@@ -2013,7 +2286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
@@ -2031,11 +2304,11 @@
       <c r="G53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="10" t="n">
+      <c r="H53" s="10">
         <v>30</v>
       </c>
       <c r="I53" s="11"/>
-      <c r="J53" s="11" t="n">
+      <c r="J53" s="11">
         <v>2025</v>
       </c>
       <c r="K53" s="7" t="s">
@@ -2045,7 +2318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>12</v>
       </c>
@@ -2063,11 +2336,11 @@
       <c r="G54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="10" t="n">
+      <c r="H54" s="10">
         <v>20</v>
       </c>
       <c r="I54" s="12"/>
-      <c r="J54" s="12" t="n">
+      <c r="J54" s="12">
         <v>2050</v>
       </c>
       <c r="K54" s="7" t="s">
@@ -2077,7 +2350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>12</v>
       </c>
@@ -2095,7 +2368,7 @@
       <c r="G55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="10" t="n">
+      <c r="H55" s="10">
         <v>14</v>
       </c>
       <c r="I55" s="11"/>
@@ -2107,7 +2380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>12</v>
       </c>
@@ -2125,7 +2398,7 @@
       <c r="G56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="10" t="n">
+      <c r="H56" s="10">
         <v>30</v>
       </c>
       <c r="I56" s="11"/>
@@ -2137,2990 +2410,3110 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="2">
+        <v>817</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="2">
+        <v>910</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="2">
+        <v>337</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="6"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="6"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="6"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="6"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="6"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="6"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="6"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="6"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="6"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="6"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="6"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="6"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="6"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="6"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="6"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="6"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="6"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="6"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="6"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="6"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="6"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="6"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="6"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="6"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="6"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="6"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="6"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="6"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="6"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="6"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="6"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="6"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="6"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="6"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="6"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="6"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="6"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="6"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="6"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="6"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="6"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="6"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="6"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="6"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="6"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="6"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="6"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="6"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="6"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="6"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="6"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="6"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="6"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="6"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="6"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="6"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="6"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="6"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="6"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="6"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="6"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="6"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="6"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="6"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="6"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="6"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="6"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="6"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="6"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="6"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="6"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="6"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="6"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="6"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="6"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="6"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="6"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="6"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="6"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="6"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="6"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="6"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="6"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="6"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="6"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="6"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="6"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="6"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="6"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="6"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="6"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="6"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="6"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="6"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="6"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="6"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="6"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="6"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="6"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="6"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="6"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="6"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="6"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="6"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="6"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="6"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="6"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="6"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="6"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="6"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="6"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="6"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="6"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="6"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="6"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="6"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="6"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="6"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="6"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="6"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="6"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="6"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="6"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="6"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="6"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="6"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="6"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="6"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="6"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="6"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="6"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="6"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="6"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="6"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="6"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="6"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="6"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="6"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="6"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="6"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="6"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="6"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="6"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="6"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="6"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="6"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="6"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="6"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="6"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="6"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="6"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="6"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="6"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="6"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="6"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="6"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="6"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="6"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="6"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="6"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="6"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="6"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="6"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="6"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="6"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="6"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="6"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="6"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="6"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="6"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="6"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="6"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="6"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="6"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="6"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="6"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="6"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="6"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="6"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="6"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="6"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="6"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="6"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="6"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="6"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="6"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="6"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="6"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="6"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="6"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="6"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="6"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="6"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="6"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="6"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="6"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="6"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="6"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="6"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="6"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="6"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="6"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="6"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="6"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="6"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="6"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="6"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="6"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="6"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="6"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="6"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="6"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="6"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="6"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="6"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="6"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="6"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="6"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="6"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="6"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="6"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="6"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="6"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="6"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="6"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="6"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="6"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="6"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="6"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="6"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="6"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="6"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="6"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="6"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="6"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="6"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="6"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="6"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="6"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="6"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="6"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="6"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="6"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="6"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="6"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="6"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="6"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="6"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="6"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="6"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="6"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="6"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="6"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="6"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="6"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="6"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="6"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="6"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="6"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="6"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="6"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="6"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="6"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="6"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="6"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="6"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="6"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="6"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="6"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="6"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="6"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="6"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="6"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="6"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="6"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="6"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="6"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="6"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="6"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="6"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="6"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="6"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="6"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="6"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="6"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="6"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="6"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="6"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="6"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="6"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="6"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="6"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="6"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="6"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="6"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="6"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="6"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="6"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="6"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="6"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="6"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="6"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="6"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="6"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="6"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="6"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="6"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="6"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="6"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="6"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="6"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="6"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="6"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="6"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="6"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="6"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="6"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="6"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="6"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="6"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="6"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="6"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="6"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="6"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="6"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="6"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="6"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="6"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="6"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="6"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="6"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="6"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="6"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="6"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="6"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="6"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="6"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="6"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="6"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="6"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="6"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="6"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="6"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="6"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="6"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="6"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="6"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="6"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="6"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="6"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="6"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="6"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="6"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="6"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="6"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="6"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="6"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="6"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="6"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="6"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="6"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="6"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="6"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="6"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="6"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="6"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="6"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="6"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="6"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="6"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="6"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="6"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="6"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="6"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="6"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="6"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="6"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="6"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="6"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="6"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="6"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="6"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="6"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="6"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="6"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="6"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="6"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="6"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="6"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="6"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="6"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="6"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="6"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="6"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="6"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="6"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="6"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="6"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="6"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="6"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="6"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="6"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="6"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="6"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="6"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="6"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="6"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="6"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="6"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="6"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="6"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="6"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="6"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="6"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="6"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="6"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="6"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="6"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="6"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="6"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="6"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="6"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="6"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="6"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="6"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="6"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="6"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="6"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="6"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="6"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="6"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="6"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="6"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="6"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="6"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="6"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="6"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="6"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="6"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="6"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="6"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="6"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="6"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="6"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="6"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="6"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="6"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="6"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="6"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="6"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="6"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="6"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="6"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="6"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="6"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="6"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="6"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="6"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="6"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="6"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="6"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="6"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="6"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="6"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="6"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="6"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="6"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="6"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="6"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="6"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="6"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="6"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="6"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="6"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="6"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="6"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="6"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="6"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="6"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="6"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="6"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="6"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="6"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="6"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="6"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="6"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="6"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="6"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="6"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="6"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="6"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="6"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="6"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="6"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="6"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="6"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="6"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="6"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="6"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="6"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="6"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="6"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="6"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="6"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="6"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="6"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="6"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="6"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="6"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="6"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="6"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="6"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="6"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="6"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="6"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="6"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="6"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="6"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="6"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="6"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="6"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="6"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="6"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="6"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="6"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="6"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="6"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="6"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="6"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="6"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="6"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="6"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="6"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="6"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="6"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="6"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="6"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="6"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="6"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="6"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="6"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="6"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="6"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="6"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="6"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="6"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="6"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="6"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" s="6"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" s="6"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" s="6"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" s="6"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" s="6"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A825" s="6"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A826" s="6"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" s="6"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" s="6"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" s="6"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" s="6"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" s="6"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" s="6"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" s="6"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" s="6"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" s="6"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" s="6"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" s="6"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" s="6"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" s="6"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" s="6"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A841" s="6"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A842" s="6"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A843" s="6"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A844" s="6"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" s="6"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A846" s="6"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" s="6"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A848" s="6"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" s="6"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A850" s="6"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A851" s="6"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A852" s="6"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A853" s="6"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A854" s="6"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A855" s="6"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A856" s="6"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A857" s="6"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A858" s="6"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A859" s="6"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A860" s="6"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A861" s="6"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A862" s="6"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A863" s="6"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A864" s="6"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A865" s="6"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A866" s="6"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A867" s="6"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A868" s="6"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A869" s="6"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A870" s="6"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A871" s="6"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A872" s="6"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A873" s="6"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A874" s="6"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A875" s="6"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A876" s="6"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A877" s="6"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A878" s="6"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A879" s="6"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A880" s="6"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A881" s="6"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A882" s="6"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A883" s="6"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A884" s="6"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A885" s="6"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A886" s="6"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A887" s="6"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A888" s="6"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A889" s="6"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A890" s="6"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A891" s="6"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A892" s="6"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A893" s="6"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A894" s="6"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A895" s="6"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A896" s="6"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A897" s="6"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A898" s="6"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A899" s="6"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A900" s="6"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A901" s="6"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A902" s="6"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A903" s="6"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A904" s="6"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A905" s="6"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A906" s="6"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A907" s="6"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A908" s="6"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A909" s="6"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A910" s="6"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A911" s="6"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A912" s="6"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A913" s="6"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A914" s="6"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A915" s="6"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A916" s="6"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A917" s="6"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A918" s="6"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A919" s="6"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A920" s="6"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A921" s="6"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A922" s="6"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A923" s="6"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A924" s="6"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A925" s="6"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A926" s="6"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A927" s="6"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A928" s="6"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A929" s="6"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A930" s="6"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A931" s="6"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A932" s="6"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A933" s="6"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A934" s="6"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A935" s="6"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A936" s="6"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A937" s="6"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A938" s="6"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A939" s="6"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A940" s="6"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A941" s="6"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A942" s="6"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A943" s="6"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A944" s="6"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A945" s="6"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A946" s="6"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A947" s="6"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A948" s="6"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A949" s="6"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A950" s="6"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A951" s="6"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A952" s="6"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A953" s="6"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A954" s="6"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A955" s="6"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A956" s="6"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A957" s="6"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A958" s="6"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A959" s="6"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A960" s="6"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A961" s="6"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A962" s="6"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A963" s="6"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A964" s="6"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A965" s="6"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A966" s="6"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A967" s="6"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A968" s="6"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A969" s="6"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A970" s="6"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A971" s="6"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A972" s="6"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A973" s="6"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A974" s="6"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A975" s="6"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A976" s="6"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A977" s="6"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A978" s="6"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A979" s="6"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A980" s="6"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A981" s="6"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A982" s="6"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A983" s="6"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A984" s="6"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A985" s="6"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A986" s="6"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A987" s="6"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A988" s="6"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A989" s="6"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A990" s="6"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A991" s="6"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A992" s="6"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A993" s="6"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A994" s="6"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A995" s="6"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A996" s="6"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A997" s="6"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A998" s="6"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A999" s="6"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1000" s="6"/>
     </row>
-    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1001" s="6"/>
     </row>
-    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1002" s="6"/>
     </row>
-    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1003" s="6"/>
     </row>
-    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1004" s="6"/>
     </row>
-    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1005" s="6"/>
     </row>
-    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1006" s="6"/>
     </row>
-    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1007" s="6"/>
     </row>
-    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1008" s="6"/>
     </row>
-    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1009" s="6"/>
     </row>
-    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1010" s="6"/>
     </row>
-    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1011" s="6"/>
     </row>
-    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1012" s="6"/>
     </row>
-    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1013" s="6"/>
     </row>
-    <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1014" s="6"/>
     </row>
-    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1015" s="6"/>
     </row>
-    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1016" s="6"/>
     </row>
-    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1017" s="6"/>
     </row>
-    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1018" s="6"/>
     </row>
-    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1019" s="6"/>
     </row>
-    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1020" s="6"/>
     </row>
-    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1021" s="6"/>
     </row>
-    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1022" s="6"/>
     </row>
-    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1023" s="6"/>
     </row>
-    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1024" s="6"/>
     </row>
-    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1025" s="6"/>
     </row>
-    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1026" s="6"/>
     </row>
-    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1027" s="6"/>
     </row>
-    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="6"/>
-    </row>
-    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="6"/>
-    </row>
-    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="6"/>
-    </row>
-    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="6"/>
-    </row>
-    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="6"/>
-    </row>
-    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="6"/>
-    </row>
-    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="6"/>
-    </row>
-    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="6"/>
-    </row>
-    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="6"/>
-    </row>
-    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="6"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A:L"/>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" error="Check value!" errorTitle="Check value!" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:A1037" type="list">
-      <formula1>#ref!</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <tableParts>
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <autoFilter ref="A1:L1048566" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Check value!" error="Check value!" xr:uid="{B3F9EC4F-C5A3-C642-9C2D-CAD241701528}">
+          <x14:formula1>
+            <xm:f>dropdown!$A$2:$A10</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1048567:A1048576 A1:A62</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Check value!" error="Check value!" xr:uid="{EA4F4EFF-1F69-684B-9A0A-D19B04958ED7}">
+          <x14:formula1>
+            <xm:f>dropdown!$A$2:$A79</xm:f>
+          </x14:formula1>
+          <xm:sqref>A65:A1048566</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Check value!" error="Check value!" xr:uid="{BA005789-7BF8-5141-9190-3C5DD1B2766C}">
+          <x14:formula1>
+            <xm:f>dropdown!$A$2:$A75</xm:f>
+          </x14:formula1>
+          <xm:sqref>A63:A64</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.23"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
@@ -5137,215 +5530,214 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>2025</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>2025</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>100</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>2025</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>60</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>2025</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>2025</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>50</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>2050</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>15</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>2050</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>2050</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>60</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>2050</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>40</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>2050</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>300</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>2050</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5353,22 +5745,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.21"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
@@ -5382,81 +5771,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5464,23 +5880,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.69"/>
+    <col min="1" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5494,69 +5907,122 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D511BEC4-E1C0-1642-89A3-A32272EB7FC7}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/data/data.xlsx
+++ b/input/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="technology_data" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,8 @@
     <sheet name="routes" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A$1:$L$66</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A$1:$L$38</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A$1:$L$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">technology_data!$A$1:$L$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="122">
   <si>
     <t xml:space="preserve">process_group</t>
   </si>
@@ -89,30 +89,45 @@
     <t xml:space="preserve">hydrogen</t>
   </si>
   <si>
+    <t xml:space="preserve">MWh/t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boulamanti and Moya (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK VALUE!!! @Lukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural gas</t>
+  </si>
+  <si>
     <t xml:space="preserve">t/t</t>
   </si>
   <si>
-    <t xml:space="preserve">Boulamanti and Moya (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural gas</t>
-  </si>
-  <si>
     <t xml:space="preserve">fixed_opex</t>
   </si>
   <si>
     <t xml:space="preserve">without hydrogen</t>
   </si>
   <si>
+    <t xml:space="preserve">DAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test value</t>
+  </si>
+  <si>
     <t xml:space="preserve">UREA</t>
   </si>
   <si>
     <t xml:space="preserve">feedstock_demand</t>
   </si>
   <si>
+    <t xml:space="preserve">co2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ammonia</t>
   </si>
   <si>
@@ -161,9 +176,6 @@
     <t xml:space="preserve">coke</t>
   </si>
   <si>
-    <t xml:space="preserve">MWh/t</t>
-  </si>
-  <si>
     <t xml:space="preserve">H2</t>
   </si>
   <si>
@@ -318,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">Integrated ammonia plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct-air capture</t>
   </si>
   <si>
     <t xml:space="preserve">processes</t>
@@ -383,13 +398,19 @@
     <t xml:space="preserve">1: none</t>
   </si>
   <si>
-    <t xml:space="preserve">ELEC_HB_UREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELEC, HB, UREA</t>
+    <t xml:space="preserve">ELEC_HB_DAC_UREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEC, HB, DAC, UREA</t>
   </si>
   <si>
     <t xml:space="preserve">1: none, 2: hydrogen, 3: ammonia, 4: urea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEC_HB_CCU_UREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEC, HB, CCU, UREA</t>
   </si>
 </sst>
 </file>
@@ -647,10 +668,10 @@
     <tabColor rgb="FFDEEBF7"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1030"/>
+  <dimension ref="A1:L1033"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,10 +785,13 @@
         <v>20</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.178</v>
+        <v>5.9</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,7 +805,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,10 +822,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.65</v>
@@ -815,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
@@ -827,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
@@ -855,19 +882,23 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.6</v>
+        <v>2</v>
+      </c>
+      <c r="I9" s="0"/>
+      <c r="L9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,19 +906,20 @@
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.5</v>
+        <v>300</v>
+      </c>
+      <c r="I10" s="0"/>
+      <c r="L10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,445 +927,429 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H14" s="2" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="L14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>800000</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="n">
-        <v>2025</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="10" t="n">
-        <v>300000</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="n">
-        <v>2050</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="n">
-        <v>2025</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="7" t="n">
-        <v>1</v>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="n">
-        <v>2050</v>
-      </c>
-      <c r="K15" s="8"/>
+        <v>800000</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="L15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>300000</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="10" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="8" t="s">
+      <c r="H17" s="10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="7" t="s">
-        <v>15</v>
+      <c r="G19" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>230</v>
+        <v>0.03</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="11" t="n">
-        <v>2025</v>
-      </c>
+      <c r="J19" s="11"/>
       <c r="K19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H20" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>230</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12" t="n">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="n">
         <v>2050</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="B24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="10" t="n">
+        <v>184</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="10" t="n">
-        <v>184</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="8" t="s">
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="1" t="n">
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H26" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="10" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="10" t="n">
-        <v>1.69983</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="8" t="s">
+      <c r="K27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>18</v>
@@ -1342,504 +1358,504 @@
         <v>23</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H28" s="10" t="n">
-        <v>2.79</v>
+        <v>0.329</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>0.753</v>
+        <v>1.69983</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G31" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H31" s="10" t="n">
-        <v>0.159</v>
+        <v>2.79</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="G32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="10" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="10" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="10" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>1.5</v>
+        <v>110</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="8"/>
+      <c r="A36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.18</v>
+        <v>0.278</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="7" t="n">
+      <c r="A38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="10" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="8"/>
+      <c r="H38" s="2" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="10" t="n">
-        <v>0.35</v>
+        <v>0.011</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="7" t="n">
+      <c r="A40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" s="8"/>
+      <c r="H40" s="2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="10" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
       <c r="G42" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="10" t="n">
-        <v>1.504</v>
+        <v>0.35</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="G43" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="10" t="n">
-        <v>0.011</v>
+        <v>0.1</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G44" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="10" t="n">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="F45" s="8"/>
       <c r="G45" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="10" t="n">
-        <v>0.35</v>
+        <v>1.504</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="8"/>
@@ -1847,222 +1863,226 @@
         <v>1</v>
       </c>
       <c r="H46" s="10" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="G47" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="10" t="n">
-        <v>0.05</v>
+        <v>0.85</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G48" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="10" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="F49" s="8"/>
       <c r="G49" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="10" t="n">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="7" t="s">
-        <v>15</v>
+      <c r="F51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H51" s="10" t="n">
-        <v>130</v>
+        <v>0.1</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="7" t="s">
-        <v>15</v>
+      <c r="F52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H52" s="10" t="n">
-        <v>1777</v>
+        <v>0.6</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="A53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="10" t="n">
-        <v>4000</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" s="8"/>
+      <c r="H53" s="2" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="8"/>
@@ -2070,27 +2090,27 @@
         <v>15</v>
       </c>
       <c r="H54" s="10" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="8"/>
@@ -2098,274 +2118,264 @@
         <v>15</v>
       </c>
       <c r="H55" s="10" t="n">
-        <v>180</v>
+        <v>1777</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="A56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H58" s="10" t="n">
+        <v>180</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="1" t="n">
+      <c r="K59" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H60" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="1" t="n">
+      <c r="K60" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H61" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="10" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="10" t="n">
-        <v>35</v>
-      </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="10" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L61" s="8"/>
+      <c r="K61" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="1" t="s">
-        <v>15</v>
+      <c r="G62" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H62" s="10" t="n">
-        <v>20</v>
+        <v>0.03</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H63" s="10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="11" t="n">
-        <v>2025</v>
-      </c>
+      <c r="J63" s="11"/>
       <c r="K63" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="1" t="s">
-        <v>15</v>
+      <c r="G64" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H64" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12" t="n">
-        <v>2050</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="L64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="8"/>
@@ -2373,29 +2383,29 @@
         <v>15</v>
       </c>
       <c r="H65" s="10" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="8"/>
@@ -2406,26 +2416,28 @@
         <v>30</v>
       </c>
       <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
+      <c r="J66" s="11" t="n">
+        <v>2025</v>
+      </c>
       <c r="K66" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="8"/>
@@ -2435,19 +2447,29 @@
       <c r="H67" s="10" t="n">
         <v>20</v>
       </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="8"/>
@@ -2455,21 +2477,29 @@
         <v>15</v>
       </c>
       <c r="H68" s="10" t="n">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="8"/>
@@ -2477,17 +2507,91 @@
         <v>15</v>
       </c>
       <c r="H69" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="10" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
+      <c r="L70" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
+      <c r="A71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6"/>
+      <c r="A72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
@@ -5363,10 +5467,19 @@
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="6"/>
     </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="6"/>
+    </row>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="6"/>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L66"/>
+  <autoFilter ref="A1:L69"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" error="Check value!" errorTitle="Check value!" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="A1:A1069" type="none">
+    <dataValidation allowBlank="true" error="Check value!" errorTitle="Check value!" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="A1:A1072" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5390,7 +5503,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5401,10 +5514,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>6</v>
@@ -5418,13 +5531,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>60</v>
@@ -5435,13 +5548,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>30</v>
@@ -5452,13 +5565,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>40</v>
@@ -5469,13 +5582,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>100</v>
@@ -5486,13 +5599,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>60</v>
@@ -5503,10 +5616,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
@@ -5520,13 +5633,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>50</v>
@@ -5537,13 +5650,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>15</v>
@@ -5554,13 +5667,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>30</v>
@@ -5571,13 +5684,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>60</v>
@@ -5588,13 +5701,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>40</v>
@@ -5605,10 +5718,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>15</v>
@@ -5620,6 +5733,7 @@
         <v>2050</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5637,10 +5751,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5650,13 +5764,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -5664,86 +5778,86 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,27 +5865,27 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,13 +5893,27 @@
         <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>90</v>
+      <c r="B11" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5804,10 +5932,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5822,69 +5950,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,13 +6020,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,13 +6034,27 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
